--- a/biology/Botanique/Biscutella_rotgesii/Biscutella_rotgesii.xlsx
+++ b/biology/Botanique/Biscutella_rotgesii/Biscutella_rotgesii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Biscutella rotgesii (la lunetière de Rotgès) est une espèce de plante à fleurs de la famille des Brassicaceae.
 On la trouve uniquement en Corse, en France. Son habitat naturel est la végétation arbustive de type méditerranéen. Elle est menacée par la perte de son habitat.
